--- a/use-cases/use-case-quiz.xlsx
+++ b/use-cases/use-case-quiz.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josepereira/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josepereira/src/univ/programs/projects/projeto-li4/use-cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC00F00F-8A6E-0A45-A13B-A10BEE33DB13}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456ECD1D-8DAA-5444-B762-F2A324A45EC4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C7A0A64F-69DF-CB43-BB66-CA0002FD1B4D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16700" xr2:uid="{C7A0A64F-69DF-CB43-BB66-CA0002FD1B4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,11 +103,6 @@
 (próxima questão)</t>
   </si>
   <si>
-    <t>Alternativa 1
-(passo 3)
-[não é a última questão]</t>
-  </si>
-  <si>
     <t>Alternativa 3
 (passo 4)
 [pontuação inválida]</t>
@@ -119,13 +114,41 @@
   <si>
     <t>4.2. Regressa a 3 
 (para a mesma questão)</t>
+  </si>
+  <si>
+    <r>
+      <t>Alternativa 1
+(passo 3)
+[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>não</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> é a última questão]</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -134,6 +157,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -343,35 +374,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -385,6 +392,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -702,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1247600E-1397-C742-A058-B663B513FA0A}">
   <dimension ref="B1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -719,40 +750,40 @@
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="10"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="18"/>
     </row>
     <row r="5" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="20"/>
     </row>
     <row r="6" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="21" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -763,50 +794,50 @@
       </c>
     </row>
     <row r="7" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="13"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="14"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="14"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="14"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="3"/>
       <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="14"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="3"/>
       <c r="D11" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="14"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="17" t="s">
-        <v>23</v>
+      <c r="B13" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="1" t="s">
@@ -814,49 +845,49 @@
       </c>
     </row>
     <row r="14" spans="2:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="17"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="58" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="8"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="8"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="18" t="s">
+    </row>
+    <row r="19" spans="2:4" ht="41" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="16"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="14" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="8"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="22" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/use-cases/use-case-quiz.xlsx
+++ b/use-cases/use-case-quiz.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josepereira/src/univ/programs/projects/projeto-li4/use-cases/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricardopetronilho/Desktop/projeto-li4/use-cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456ECD1D-8DAA-5444-B762-F2A324A45EC4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE1E89A-9A68-0746-9FE2-D9D828B80FE4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16700" xr2:uid="{C7A0A64F-69DF-CB43-BB66-CA0002FD1B4D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{C7A0A64F-69DF-CB43-BB66-CA0002FD1B4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,12 +52,6 @@
     <t>Quiz</t>
   </si>
   <si>
-    <t>Utilizador</t>
-  </si>
-  <si>
-    <t>Registado/autenticado no sistema</t>
-  </si>
-  <si>
     <t>3. Indica pontuação</t>
   </si>
   <si>
@@ -93,10 +87,6 @@
   </si>
   <si>
     <t>1. Recolher questões para efetuar</t>
-  </si>
-  <si>
-    <t>3.1.2. Regressa a 3 
-(para a mesma questão)</t>
   </si>
   <si>
     <t>3.3. Regressar a 2
@@ -142,6 +132,16 @@
       </rPr>
       <t xml:space="preserve"> é a última questão]</t>
     </r>
+  </si>
+  <si>
+    <t>Autenticado no sistema</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>3.1.2. Regressa a 3 
+(volta a pedir pontuação)</t>
   </si>
 </sst>
 </file>
@@ -733,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1247600E-1397-C742-A058-B663B513FA0A}">
   <dimension ref="B1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:B17"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="181" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -760,7 +760,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D3" s="18"/>
     </row>
@@ -769,7 +769,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D4" s="18"/>
     </row>
@@ -778,7 +778,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" s="20"/>
     </row>
@@ -797,20 +797,20 @@
       <c r="B7" s="21"/>
       <c r="C7" s="11"/>
       <c r="D7" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="22"/>
       <c r="C8" s="3"/>
       <c r="D8" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="22"/>
       <c r="C9" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -818,76 +818,76 @@
       <c r="B10" s="22"/>
       <c r="C10" s="3"/>
       <c r="D10" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="22"/>
       <c r="C11" s="3"/>
       <c r="D11" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="22"/>
       <c r="C12" s="3"/>
       <c r="D12" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="15"/>
       <c r="C14" s="3"/>
       <c r="D14" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="58" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="16"/>
       <c r="C15" s="4"/>
       <c r="D15" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="41" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="16"/>
       <c r="C17" s="4"/>
       <c r="D17" s="14" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="41" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="41" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="16"/>
       <c r="C19" s="4"/>
       <c r="D19" s="14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
